--- a/data/trans_camb/P36B08_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P36B08_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,58; 12,95</t>
+          <t>4,71; 12,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,04; 16,57</t>
+          <t>8,0; 16,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,39; 32,57</t>
+          <t>24,29; 31,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,48; 11,56</t>
+          <t>4,44; 11,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 10,15</t>
+          <t>2,86; 9,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,17; 24,73</t>
+          <t>18,87; 24,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,84; 11,09</t>
+          <t>5,7; 10,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,49; 11,83</t>
+          <t>6,1; 11,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,75; 27,14</t>
+          <t>22,61; 27,14</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,09; 20,89</t>
+          <t>7,21; 20,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,1; 26,88</t>
+          <t>11,92; 26,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>38,18; 53,46</t>
+          <t>36,92; 51,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,07; 16,32</t>
+          <t>6,02; 15,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,04; 14,24</t>
+          <t>3,85; 13,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,57; 35,08</t>
+          <t>25,16; 34,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,31; 16,29</t>
+          <t>8,04; 16,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,18; 17,47</t>
+          <t>8,71; 17,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32,18; 40,23</t>
+          <t>31,88; 40,3</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 10,66</t>
+          <t>4,2; 10,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,28; 10,53</t>
+          <t>4,41; 10,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,3; 34,68</t>
+          <t>29,52; 35,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,39; 10,48</t>
+          <t>4,57; 11,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 8,68</t>
+          <t>2,38; 8,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,94; 28,79</t>
+          <t>23,87; 28,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 9,77</t>
+          <t>5,18; 9,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,36; 8,63</t>
+          <t>4,2; 8,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,5; 31,24</t>
+          <t>27,47; 31,32</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,65; 17,9</t>
+          <t>6,58; 17,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,7; 17,7</t>
+          <t>6,9; 17,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,71; 58,24</t>
+          <t>46,24; 59,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,44; 15,34</t>
+          <t>6,48; 16,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,6; 12,83</t>
+          <t>3,34; 12,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,46; 42,79</t>
+          <t>33,37; 42,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,67; 15,31</t>
+          <t>7,75; 15,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,54; 13,44</t>
+          <t>6,27; 13,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>40,95; 48,87</t>
+          <t>40,93; 48,94</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,28; 15,39</t>
+          <t>3,43; 15,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,27; 17,87</t>
+          <t>6,59; 17,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26,67; 35,09</t>
+          <t>26,35; 35,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,27; 19,59</t>
+          <t>8,37; 19,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,91; 16,53</t>
+          <t>5,84; 16,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,56; 30,41</t>
+          <t>21,33; 30,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,79; 15,68</t>
+          <t>7,1; 15,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,82; 15,79</t>
+          <t>8,01; 15,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25,18; 31,76</t>
+          <t>25,29; 31,34</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,99; 24,45</t>
+          <t>5,22; 23,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,9; 28,24</t>
+          <t>9,42; 27,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>38,2; 56,61</t>
+          <t>37,47; 56,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,2; 29,26</t>
+          <t>11,01; 28,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,97; 24,69</t>
+          <t>7,83; 24,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,91; 45,85</t>
+          <t>28,36; 44,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,02; 23,47</t>
+          <t>10,11; 22,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,01; 23,73</t>
+          <t>11,27; 23,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>35,26; 48,4</t>
+          <t>35,49; 47,44</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,71; 10,42</t>
+          <t>5,8; 10,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,83; 11,25</t>
+          <t>6,74; 11,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>29,18; 33,02</t>
+          <t>29,1; 32,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,45; 10,57</t>
+          <t>6,2; 10,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,97; 8,26</t>
+          <t>4,19; 8,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,01; 26,25</t>
+          <t>22,9; 26,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,66; 9,75</t>
+          <t>6,6; 9,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,06; 9,17</t>
+          <t>6,07; 9,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>26,5; 29,01</t>
+          <t>26,56; 29,1</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,8; 16,74</t>
+          <t>9,05; 16,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,64; 18,15</t>
+          <t>10,44; 18,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>45,02; 53,61</t>
+          <t>45,01; 53,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,01; 15,25</t>
+          <t>8,56; 15,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,45; 11,81</t>
+          <t>5,76; 12,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>31,81; 37,76</t>
+          <t>31,57; 37,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,8; 14,73</t>
+          <t>9,68; 14,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,9; 13,78</t>
+          <t>8,87; 13,9</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>38,73; 43,73</t>
+          <t>38,94; 43,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P36B08_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P36B08_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,71; 12,79</t>
+          <t>4,58; 12,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,0; 16,12</t>
+          <t>8,29; 16,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,29; 31,84</t>
+          <t>24,97; 32,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,44; 11,21</t>
+          <t>4,74; 11,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 9,63</t>
+          <t>3,02; 10,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,87; 24,49</t>
+          <t>19,35; 24,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,7; 10,92</t>
+          <t>5,67; 10,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,1; 11,61</t>
+          <t>6,11; 11,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,61; 27,14</t>
+          <t>22,84; 27,2</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,21; 20,85</t>
+          <t>6,8; 20,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,92; 26,11</t>
+          <t>12,65; 27,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,92; 51,59</t>
+          <t>37,44; 52,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,02; 15,79</t>
+          <t>6,31; 15,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,85; 13,53</t>
+          <t>3,96; 14,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,16; 34,6</t>
+          <t>25,82; 35,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,04; 16,07</t>
+          <t>8,03; 16,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,71; 17,16</t>
+          <t>8,71; 17,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31,88; 40,3</t>
+          <t>32,33; 40,4</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,2; 10,8</t>
+          <t>4,25; 10,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,41; 10,7</t>
+          <t>4,07; 10,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,52; 35,02</t>
+          <t>29,28; 34,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,57; 11,04</t>
+          <t>4,51; 11,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,38; 8,4</t>
+          <t>2,49; 8,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,87; 28,73</t>
+          <t>24,08; 28,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,18; 9,82</t>
+          <t>5,25; 9,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,2; 8,5</t>
+          <t>4,38; 8,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,47; 31,32</t>
+          <t>27,6; 31,35</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,58; 17,86</t>
+          <t>6,66; 18,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,9; 17,91</t>
+          <t>6,34; 17,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,24; 59,11</t>
+          <t>46,09; 58,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,48; 16,39</t>
+          <t>6,26; 16,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 12,49</t>
+          <t>3,37; 12,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,37; 42,98</t>
+          <t>33,57; 43,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,75; 15,27</t>
+          <t>7,92; 15,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,27; 13,13</t>
+          <t>6,53; 13,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>40,93; 48,94</t>
+          <t>41,15; 48,97</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,43; 15,15</t>
+          <t>3,25; 14,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,59; 17,47</t>
+          <t>6,7; 17,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26,35; 35,27</t>
+          <t>26,43; 35,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,37; 19,65</t>
+          <t>8,61; 19,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,84; 16,32</t>
+          <t>5,52; 16,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,33; 30,13</t>
+          <t>21,52; 30,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,1; 15,24</t>
+          <t>7,34; 15,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,01; 15,37</t>
+          <t>7,97; 15,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25,29; 31,34</t>
+          <t>25,28; 31,53</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,22; 23,95</t>
+          <t>4,63; 23,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,42; 27,78</t>
+          <t>9,6; 28,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>37,47; 56,68</t>
+          <t>37,54; 55,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,01; 28,94</t>
+          <t>11,81; 29,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,83; 24,13</t>
+          <t>7,38; 24,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,36; 44,97</t>
+          <t>29,08; 47,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,11; 22,95</t>
+          <t>10,55; 23,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,27; 23,2</t>
+          <t>11,32; 23,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>35,49; 47,44</t>
+          <t>35,52; 48,03</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,8; 10,3</t>
+          <t>5,51; 10,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,74; 11,43</t>
+          <t>6,84; 11,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>29,1; 32,95</t>
+          <t>29,02; 32,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,2; 10,56</t>
+          <t>6,31; 10,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,19; 8,44</t>
+          <t>4,22; 8,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,9; 26,37</t>
+          <t>23,13; 26,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,6; 9,72</t>
+          <t>6,7; 9,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,07; 9,22</t>
+          <t>6,14; 9,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>26,56; 29,1</t>
+          <t>26,68; 29,22</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>9,05; 16,6</t>
+          <t>8,62; 16,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,44; 18,46</t>
+          <t>10,58; 18,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>45,01; 53,42</t>
+          <t>44,63; 53,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,56; 15,1</t>
+          <t>8,76; 14,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,76; 12,01</t>
+          <t>5,84; 11,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>31,57; 37,89</t>
+          <t>31,97; 37,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,68; 14,62</t>
+          <t>9,85; 15,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,87; 13,9</t>
+          <t>9,02; 13,94</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>38,94; 43,97</t>
+          <t>39,05; 44,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P36B08_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P36B08_R-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,75</t>
+          <t>28,63</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,79</t>
+          <t>21,69</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>24,93</t>
+          <t>24,8</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,97; 32,39</t>
+          <t>24,85; 32,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,35; 24,75</t>
+          <t>19,24; 24,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,84; 27,2</t>
+          <t>22,66; 27,09</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>44,79%</t>
+          <t>44,6%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>29,9%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>36,1%</t>
+          <t>35,91%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37,44; 52,65</t>
+          <t>37,09; 52,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,82; 35,07</t>
+          <t>25,66; 34,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32,33; 40,4</t>
+          <t>32,13; 40,18</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>32,13</t>
+          <t>32,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,31</t>
+          <t>26,51</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>29,37</t>
+          <t>29,6</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,28; 34,58</t>
+          <t>29,43; 35,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,08; 28,98</t>
+          <t>24,25; 29,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,6; 31,35</t>
+          <t>27,8; 31,75</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>52,11%</t>
+          <t>52,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,76%</t>
+          <t>38,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>44,82%</t>
+          <t>45,16%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,09; 58,17</t>
+          <t>46,08; 59,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,57; 43,2</t>
+          <t>33,93; 43,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>41,15; 48,97</t>
+          <t>41,46; 49,48</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>30,73</t>
+          <t>30,67</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>28,37</t>
+          <t>28,35</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26,43; 35,02</t>
+          <t>26,33; 34,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,52; 30,92</t>
+          <t>21,51; 30,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25,28; 31,53</t>
+          <t>25,32; 31,54</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>46,4%</t>
+          <t>46,3%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>41,48%</t>
+          <t>41,45%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>37,54; 55,86</t>
+          <t>37,55; 55,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,08; 47,05</t>
+          <t>29,02; 47,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>35,52; 48,03</t>
+          <t>35,52; 47,98</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>31,06</t>
+          <t>31,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,71</t>
+          <t>24,83</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>27,87</t>
+          <t>27,98</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>29,02; 32,81</t>
+          <t>29,07; 33,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,13; 26,4</t>
+          <t>23,23; 26,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>26,68; 29,22</t>
+          <t>26,71; 29,41</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>49,13%</t>
+          <t>49,36%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>34,93%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>41,47%</t>
+          <t>41,63%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>44,63; 53,08</t>
+          <t>44,89; 53,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>31,97; 37,88</t>
+          <t>32,08; 38,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>39,05; 44,09</t>
+          <t>39,17; 44,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P36B08_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P36B08_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,58; 12,93</t>
+          <t>4,81; 12,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,29; 16,68</t>
+          <t>7,8; 16,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,85; 32,26</t>
+          <t>25,09; 32,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,74; 11,21</t>
+          <t>4,47; 11,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,02; 10,29</t>
+          <t>2,97; 10,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,24; 24,69</t>
+          <t>18,92; 24,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,67; 10,98</t>
+          <t>5,77; 10,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,11; 11,75</t>
+          <t>6,25; 11,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,66; 27,09</t>
+          <t>22,51; 27,01</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,8; 20,74</t>
+          <t>7,56; 20,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,65; 27,4</t>
+          <t>11,97; 26,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37,09; 52,45</t>
+          <t>37,44; 52,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,31; 15,78</t>
+          <t>5,95; 15,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 14,07</t>
+          <t>4,01; 14,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,66; 34,96</t>
+          <t>25,19; 34,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,03; 16,29</t>
+          <t>8,14; 16,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,71; 17,39</t>
+          <t>8,94; 17,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32,13; 40,18</t>
+          <t>31,75; 40,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,25; 10,85</t>
+          <t>4,74; 11,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,07; 10,57</t>
+          <t>4,44; 10,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,43; 35,43</t>
+          <t>29,59; 35,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,51; 11,01</t>
+          <t>4,41; 10,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 8,42</t>
+          <t>2,22; 8,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,25; 29,28</t>
+          <t>24,0; 29,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,25; 9,7</t>
+          <t>5,16; 9,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,38; 8,91</t>
+          <t>4,23; 8,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,8; 31,75</t>
+          <t>27,68; 31,7</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,66; 18,28</t>
+          <t>7,48; 18,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,34; 17,61</t>
+          <t>7,02; 18,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,08; 59,24</t>
+          <t>46,36; 59,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,26; 16,14</t>
+          <t>6,11; 15,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 12,26</t>
+          <t>3,08; 12,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,93; 43,6</t>
+          <t>33,57; 42,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,92; 15,15</t>
+          <t>7,71; 15,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,53; 13,88</t>
+          <t>6,42; 13,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>41,46; 49,48</t>
+          <t>41,25; 49,46</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,25; 14,95</t>
+          <t>2,5; 14,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,7; 17,78</t>
+          <t>6,54; 17,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26,33; 34,78</t>
+          <t>26,2; 35,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,61; 19,57</t>
+          <t>8,76; 19,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,52; 16,65</t>
+          <t>5,38; 16,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,51; 30,9</t>
+          <t>21,18; 30,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,34; 15,68</t>
+          <t>7,7; 16,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,97; 15,69</t>
+          <t>7,62; 15,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25,32; 31,54</t>
+          <t>25,15; 31,31</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,63; 23,73</t>
+          <t>3,59; 22,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,6; 28,18</t>
+          <t>9,4; 27,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>37,55; 55,75</t>
+          <t>37,26; 56,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,81; 29,16</t>
+          <t>12,03; 28,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,38; 24,72</t>
+          <t>7,52; 24,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,02; 47,01</t>
+          <t>28,11; 45,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,55; 23,98</t>
+          <t>11,14; 24,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,32; 23,84</t>
+          <t>10,8; 23,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>35,52; 47,98</t>
+          <t>35,5; 47,79</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,51; 10,07</t>
+          <t>5,69; 10,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,84; 11,43</t>
+          <t>6,81; 11,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>29,07; 33,17</t>
+          <t>29,16; 33,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,31; 10,41</t>
+          <t>6,34; 10,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,22; 8,32</t>
+          <t>3,9; 8,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,23; 26,61</t>
+          <t>23,22; 26,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,7; 9,99</t>
+          <t>6,66; 9,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,14; 9,25</t>
+          <t>6,14; 9,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>26,71; 29,41</t>
+          <t>26,6; 29,33</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,62; 16,19</t>
+          <t>8,91; 16,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,58; 18,42</t>
+          <t>10,58; 18,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>44,89; 53,61</t>
+          <t>45,03; 54,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,76; 14,93</t>
+          <t>8,78; 15,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,84; 11,94</t>
+          <t>5,42; 11,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>32,08; 38,26</t>
+          <t>31,99; 38,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,85; 15,14</t>
+          <t>9,82; 14,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,02; 13,94</t>
+          <t>9,04; 14,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>39,17; 44,39</t>
+          <t>39,06; 44,34</t>
         </is>
       </c>
     </row>
